--- a/Excel-XLSX/UN-CHI.xlsx
+++ b/Excel-XLSX/UN-CHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="724">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>tpp5lL</t>
+    <t>R1QjAy</t>
   </si>
   <si>
     <t>1966</t>
@@ -2188,15 +2188,6 @@
   </si>
   <si>
     <t>491</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>494</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2572,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V495"/>
+  <dimension ref="A1:V492"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -34386,10 +34377,10 @@
         <v>32</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P468" s="2" t="s">
         <v>34</v>
@@ -34522,10 +34513,10 @@
         <v>32</v>
       </c>
       <c r="N470" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="P470" s="2" t="s">
         <v>34</v>
@@ -34658,10 +34649,10 @@
         <v>32</v>
       </c>
       <c r="N472" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>34</v>
@@ -34702,16 +34693,16 @@
         <v>699</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>269</v>
+        <v>611</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>270</v>
+        <v>612</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>271</v>
+        <v>612</v>
       </c>
       <c r="J473" s="2" t="s">
         <v>29</v>
@@ -34729,7 +34720,7 @@
         <v>50</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="P473" s="2" t="s">
         <v>34</v>
@@ -34770,16 +34761,16 @@
         <v>699</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>611</v>
+        <v>291</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>612</v>
+        <v>292</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>612</v>
+        <v>293</v>
       </c>
       <c r="J474" s="2" t="s">
         <v>29</v>
@@ -34794,10 +34785,10 @@
         <v>32</v>
       </c>
       <c r="N474" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O474" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P474" s="2" t="s">
         <v>34</v>
@@ -34838,16 +34829,16 @@
         <v>699</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>29</v>
@@ -34862,10 +34853,10 @@
         <v>32</v>
       </c>
       <c r="N475" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="P475" s="2" t="s">
         <v>34</v>
@@ -34906,16 +34897,16 @@
         <v>699</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>29</v>
@@ -34933,7 +34924,7 @@
         <v>34</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="P476" s="2" t="s">
         <v>34</v>
@@ -34974,16 +34965,16 @@
         <v>699</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>370</v>
+        <v>238</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="J477" s="2" t="s">
         <v>29</v>
@@ -35001,7 +34992,7 @@
         <v>34</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="P477" s="2" t="s">
         <v>34</v>
@@ -35042,16 +35033,16 @@
         <v>699</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="J478" s="2" t="s">
         <v>29</v>
@@ -35066,10 +35057,10 @@
         <v>32</v>
       </c>
       <c r="N478" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O478" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="P478" s="2" t="s">
         <v>34</v>
@@ -35110,16 +35101,16 @@
         <v>699</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J479" s="2" t="s">
         <v>29</v>
@@ -35134,7 +35125,7 @@
         <v>32</v>
       </c>
       <c r="N479" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O479" s="2" t="s">
         <v>34</v>
@@ -35178,16 +35169,16 @@
         <v>699</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="J480" s="2" t="s">
         <v>29</v>
@@ -35202,10 +35193,10 @@
         <v>32</v>
       </c>
       <c r="N480" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O480" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P480" s="2" t="s">
         <v>34</v>
@@ -35246,16 +35237,16 @@
         <v>699</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="J481" s="2" t="s">
         <v>29</v>
@@ -35273,7 +35264,7 @@
         <v>34</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P481" s="2" t="s">
         <v>34</v>
@@ -35314,16 +35305,16 @@
         <v>699</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J482" s="2" t="s">
         <v>29</v>
@@ -35341,7 +35332,7 @@
         <v>34</v>
       </c>
       <c r="O482" s="2" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="P482" s="2" t="s">
         <v>34</v>
@@ -35382,16 +35373,16 @@
         <v>699</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>408</v>
+        <v>253</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>409</v>
+        <v>254</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>409</v>
+        <v>254</v>
       </c>
       <c r="J483" s="2" t="s">
         <v>29</v>
@@ -35406,10 +35397,10 @@
         <v>32</v>
       </c>
       <c r="N483" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P483" s="2" t="s">
         <v>34</v>
@@ -35450,16 +35441,16 @@
         <v>699</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>248</v>
+        <v>651</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>249</v>
+        <v>652</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>250</v>
+        <v>652</v>
       </c>
       <c r="J484" s="2" t="s">
         <v>29</v>
@@ -35477,7 +35468,7 @@
         <v>34</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="P484" s="2" t="s">
         <v>34</v>
@@ -35518,16 +35509,16 @@
         <v>699</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="J485" s="2" t="s">
         <v>29</v>
@@ -35542,10 +35533,10 @@
         <v>32</v>
       </c>
       <c r="N485" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P485" s="2" t="s">
         <v>34</v>
@@ -35586,16 +35577,16 @@
         <v>699</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>651</v>
+        <v>135</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="J486" s="2" t="s">
         <v>29</v>
@@ -35610,10 +35601,10 @@
         <v>32</v>
       </c>
       <c r="N486" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="P486" s="2" t="s">
         <v>34</v>
@@ -35654,16 +35645,16 @@
         <v>699</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>162</v>
+        <v>689</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>163</v>
+        <v>690</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>163</v>
+        <v>691</v>
       </c>
       <c r="J487" s="2" t="s">
         <v>29</v>
@@ -35678,10 +35669,10 @@
         <v>32</v>
       </c>
       <c r="N487" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O487" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P487" s="2" t="s">
         <v>34</v>
@@ -35722,16 +35713,16 @@
         <v>699</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="J488" s="2" t="s">
         <v>29</v>
@@ -35746,13 +35737,13 @@
         <v>32</v>
       </c>
       <c r="N488" s="2" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P488" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q488" s="2" t="s">
         <v>34</v>
@@ -35790,16 +35781,16 @@
         <v>699</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>689</v>
+        <v>387</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>690</v>
+        <v>388</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>691</v>
+        <v>388</v>
       </c>
       <c r="J489" s="2" t="s">
         <v>29</v>
@@ -35814,10 +35805,10 @@
         <v>32</v>
       </c>
       <c r="N489" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="O489" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="P489" s="2" t="s">
         <v>34</v>
@@ -35858,16 +35849,16 @@
         <v>699</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>423</v>
+        <v>658</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>424</v>
+        <v>659</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>424</v>
+        <v>659</v>
       </c>
       <c r="J490" s="2" t="s">
         <v>29</v>
@@ -35882,10 +35873,10 @@
         <v>32</v>
       </c>
       <c r="N490" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="O490" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="P490" s="2" t="s">
         <v>34</v>
@@ -35926,16 +35917,16 @@
         <v>699</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="J491" s="2" t="s">
         <v>29</v>
@@ -35950,10 +35941,10 @@
         <v>32</v>
       </c>
       <c r="N491" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="O491" s="2" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="P491" s="2" t="s">
         <v>34</v>
@@ -35994,16 +35985,16 @@
         <v>699</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>658</v>
+        <v>282</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>659</v>
+        <v>283</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>659</v>
+        <v>284</v>
       </c>
       <c r="J492" s="2" t="s">
         <v>29</v>
@@ -36018,10 +36009,10 @@
         <v>32</v>
       </c>
       <c r="N492" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O492" s="2" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="P492" s="2" t="s">
         <v>34</v>
@@ -36042,210 +36033,6 @@
         <v>36</v>
       </c>
       <c r="V492" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D493" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="E493" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F493" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G493" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H493" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I493" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J493" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K493" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L493" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M493" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N493" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O493" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P493" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q493" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R493" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S493" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T493" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U493" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V493" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="E494" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F494" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G494" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H494" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I494" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J494" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K494" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L494" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M494" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O494" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T494" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U494" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V494" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E495" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F495" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G495" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H495" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I495" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J495" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K495" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L495" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M495" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N495" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O495" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P495" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q495" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R495" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S495" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T495" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U495" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V495" s="2" t="s">
         <v>34</v>
       </c>
     </row>
